--- a/docker/flask/src/CHARM_CATALOGUE_DATA.xlsx
+++ b/docker/flask/src/CHARM_CATALOGUE_DATA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>COMPANY</t>
   </si>
@@ -23,6 +23,9 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
+    <t>BUSNIESS_AREA</t>
+  </si>
+  <si>
     <t>TRIVIA</t>
   </si>
   <si>
@@ -128,6 +131,9 @@
     <t>Aptiv is a global technology company that develops safer, greener and more connected solutions enabling the future of mobility.  Our Gothenburg Tech Center has two diversified business segments: Signal and Power Solutions providing the complete vehicle electrical systems, and “Advanced Safety and User Experience” offering advanced software and sensing systems for active safety, automated driving, and infotainment.</t>
   </si>
   <si>
+    <t>UX, IT, Product Development,</t>
+  </si>
+  <si>
     <t>Aptiv develops the brains and the nervous system of the vehicle - essentially a mega-computer on four wheels!</t>
   </si>
   <si>
@@ -143,6 +149,9 @@
     <t>Every day we help billions of people from all around the world feel safe, secure and experience a more open world. It’s our 49,000 people in 70 different countries who make this happen, we are proud to be a dynamic and inclusive organization. We are the global leader in access solutions and our innovations enable safe, secure and convenient access to physical and digital places.</t>
   </si>
   <si>
+    <t>Industry, Construction,</t>
+  </si>
+  <si>
     <t>Did you know that ASSA ABLOY designs and manufactures Permanent Resident Cards (i.e. Green Cards) for the US government?</t>
   </si>
   <si>
@@ -153,6 +162,9 @@
   </si>
   <si>
     <t>CELLINK is the leading bio-convergence company and a global provider of technologies to create, understand and master biology. We develop innovative products that enable researchers in the life sciences to culture cells in 3D, perform high-throughput drug screening and print human tissues and organs for the medical, pharmaceutical and cosmetic industries. Our products are trusted by 1800+ laboratories across the globe, including the top 20 pharmaceutical companies and have been cited in 700+ publications. We are creating the future of medicine.</t>
+  </si>
+  <si>
+    <t>Life Science, Product Development, Management,</t>
   </si>
   <si>
     <t>Did you know that CELLINK was created out of the Chalmers University ecosystem and is proud alumni of the university?</t>
@@ -462,17 +474,17 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="8" max="8" width="19.0"/>
-    <col customWidth="1" min="10" max="10" width="8.43"/>
-    <col customWidth="1" min="11" max="11" width="7.0"/>
-    <col customWidth="1" min="12" max="12" width="4.29"/>
-    <col customWidth="1" min="13" max="13" width="11.57"/>
-    <col customWidth="1" min="14" max="14" width="13.0"/>
-    <col customWidth="1" min="15" max="15" width="11.57"/>
-    <col customWidth="1" min="16" max="16" width="7.0"/>
-    <col customWidth="1" min="17" max="17" width="19.14"/>
-    <col customWidth="1" min="18" max="18" width="8.29"/>
-    <col customWidth="1" min="19" max="36" width="4.0"/>
+    <col customWidth="1" min="9" max="9" width="19.0"/>
+    <col customWidth="1" min="11" max="11" width="8.43"/>
+    <col customWidth="1" min="12" max="12" width="7.0"/>
+    <col customWidth="1" min="13" max="13" width="4.29"/>
+    <col customWidth="1" min="14" max="14" width="11.57"/>
+    <col customWidth="1" min="15" max="15" width="13.0"/>
+    <col customWidth="1" min="16" max="16" width="11.57"/>
+    <col customWidth="1" min="17" max="17" width="7.0"/>
+    <col customWidth="1" min="18" max="18" width="19.14"/>
+    <col customWidth="1" min="19" max="19" width="8.29"/>
+    <col customWidth="1" min="20" max="37" width="4.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -485,7 +497,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -527,7 +539,7 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -584,48 +596,51 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AY1" s="1"/>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="4">
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4">
         <v>1994.0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="4">
         <v>270.0</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>160000.0</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="b">
-        <v>1</v>
+      <c r="J2" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="K2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L2" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1" t="b">
         <v>1</v>
@@ -634,9 +649,9 @@
         <v>1</v>
       </c>
       <c r="P2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="b">
         <v>0</v>
       </c>
       <c r="R2" s="4" t="b">
@@ -651,8 +666,8 @@
       <c r="U2" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="V2" s="1" t="b">
-        <v>1</v>
+      <c r="V2" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="W2" s="1" t="b">
         <v>1</v>
@@ -660,17 +675,17 @@
       <c r="X2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Y2" s="4" t="b">
-        <v>0</v>
+      <c r="Y2" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="Z2" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AA2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="4" t="b">
-        <v>0</v>
+      <c r="AA2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AC2" s="4" t="b">
         <v>0</v>
@@ -693,61 +708,64 @@
       <c r="AI2" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AJ2" s="1" t="b">
+      <c r="AJ2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="4">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="4">
         <v>1994.0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="4">
         <v>3500.0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>49000.0</v>
       </c>
-      <c r="J3" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="4" t="b">
-        <v>0</v>
+      <c r="L3" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="M3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="N3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1" t="b">
-        <v>1</v>
+      <c r="N3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="Q3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="R3" s="4" t="b">
-        <v>0</v>
+      <c r="R3" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="S3" s="4" t="b">
         <v>0</v>
@@ -758,11 +776,11 @@
       <c r="U3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="V3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="W3" s="4" t="b">
-        <v>0</v>
+      <c r="V3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="X3" s="4" t="b">
         <v>0</v>
@@ -770,23 +788,23 @@
       <c r="Y3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Z3" s="1" t="b">
-        <v>1</v>
+      <c r="Z3" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="AA3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AB3" s="4" t="b">
-        <v>0</v>
+      <c r="AB3" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AC3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AD3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="4" t="b">
-        <v>0</v>
+      <c r="AD3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AF3" s="4" t="b">
         <v>0</v>
@@ -801,34 +819,37 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="4">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="4">
         <v>2016.0</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H4" s="8">
         <v>3000.0</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="8">
         <v>270000.0</v>
       </c>
-      <c r="J4" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K4" s="1" t="b">
         <v>1</v>
       </c>
@@ -847,20 +868,20 @@
       <c r="P4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" s="4" t="b">
-        <v>0</v>
+      <c r="Q4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="T4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="U4" s="1" t="b">
-        <v>1</v>
+      <c r="U4" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="V4" s="1" t="b">
         <v>1</v>
@@ -868,14 +889,14 @@
       <c r="W4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="X4" s="4" t="b">
-        <v>0</v>
+      <c r="X4" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="Y4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Z4" s="1" t="b">
-        <v>1</v>
+      <c r="Z4" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="AA4" s="1" t="b">
         <v>1</v>
@@ -883,17 +904,17 @@
       <c r="AB4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AC4" s="4" t="b">
-        <v>0</v>
+      <c r="AC4" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AD4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AE4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="4" t="b">
-        <v>0</v>
+      <c r="AE4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AG4" s="4" t="b">
         <v>0</v>
@@ -905,12 +926,15 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="4" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I2"/>
+    <hyperlink r:id="rId1" ref="J2"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -928,137 +952,137 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
+      <c r="A7" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>14</v>
+      <c r="A24" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
